--- a/gantt chart/Gantt_Chart.xlsx
+++ b/gantt chart/Gantt_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momu\Documents\Thesis\thesis\gantt chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13383B36-FD27-4731-A09F-A532879E9CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB2BF5-F480-4AAA-B12E-3CCF84F947F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>DURATION</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>SMART CONTRACT DEVELOPMENT WITH JASON BDI AGENTS</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>SUBMISSION</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1263,13 +1269,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1534,83 +1577,98 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1837,11 +1895,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="B1:AD21"/>
+  <dimension ref="B1:AD18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1879,7 +1937,7 @@
       <c r="B3" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="116" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1901,249 +1959,233 @@
     </row>
     <row r="6" spans="2:30" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="97">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" s="1" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="142">
+        <v>44949</v>
+      </c>
+      <c r="J7" s="108"/>
+    </row>
+    <row r="8" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="143"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="108"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="2:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="143"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="C10" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+    </row>
+    <row r="11" spans="2:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="97">
-        <v>44754</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J7" s="108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-    </row>
-    <row r="9" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="95" t="s">
+      <c r="E11" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G11" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H11" s="102">
         <v>1</v>
       </c>
-      <c r="I9" s="102">
+      <c r="I11" s="102">
         <v>2</v>
       </c>
-      <c r="J9" s="102">
+      <c r="J11" s="102">
         <v>3</v>
       </c>
-      <c r="K9" s="103">
+      <c r="K11" s="103">
         <v>4</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L11" s="102">
         <v>5</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M11" s="102">
         <v>6</v>
       </c>
-      <c r="N9" s="102">
+      <c r="N11" s="102">
         <v>7</v>
       </c>
-      <c r="O9" s="103">
+      <c r="O11" s="103">
         <v>8</v>
       </c>
-      <c r="P9" s="102">
+      <c r="P11" s="102">
         <v>9</v>
       </c>
-      <c r="Q9" s="102">
+      <c r="Q11" s="102">
         <v>10</v>
       </c>
-      <c r="R9" s="102">
+      <c r="R11" s="102">
         <v>11</v>
       </c>
-      <c r="S9" s="103">
+      <c r="S11" s="103">
         <v>12</v>
       </c>
-      <c r="T9" s="102">
+      <c r="T11" s="102">
         <v>13</v>
       </c>
-      <c r="U9" s="102">
+      <c r="U11" s="102">
         <v>14</v>
       </c>
-      <c r="V9" s="102">
+      <c r="V11" s="102">
         <v>15</v>
       </c>
-      <c r="W9" s="103">
+      <c r="W11" s="103">
         <v>16</v>
       </c>
-      <c r="X9" s="102">
+      <c r="X11" s="102">
         <v>17</v>
       </c>
-      <c r="Y9" s="102">
+      <c r="Y11" s="102">
         <v>18</v>
       </c>
-      <c r="Z9" s="102">
+      <c r="Z11" s="102">
         <v>19</v>
       </c>
-      <c r="AA9" s="103">
+      <c r="AA11" s="103">
         <v>20</v>
       </c>
-      <c r="AB9" s="102">
+      <c r="AB11" s="102">
         <v>21</v>
       </c>
-      <c r="AC9" s="102">
+      <c r="AC11" s="102">
         <v>22</v>
       </c>
-      <c r="AD9" s="102">
+      <c r="AD11" s="102">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="100" t="s">
+    <row r="12" spans="2:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D12" s="86">
         <v>44788</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E12" s="89">
         <v>44808</v>
       </c>
-      <c r="F10" s="91">
-        <f t="shared" ref="F10:F16" si="0">IF(E10-D10=0,"",E10-D10)</f>
-        <v>20</v>
-      </c>
-      <c r="G10" s="107">
-        <v>0</v>
-      </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-    </row>
-    <row r="11" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="86">
-        <v>44788</v>
-      </c>
-      <c r="E11" s="89">
-        <v>44808</v>
-      </c>
-      <c r="F11" s="91">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G11" s="107">
-        <v>0</v>
-      </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-    </row>
-    <row r="12" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="86">
-        <v>44795</v>
-      </c>
-      <c r="E12" s="89">
-        <v>44815</v>
-      </c>
       <c r="F12" s="91">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F12:F18" si="0">IF(E12-D12=0,"",E12-D12)</f>
         <v>20</v>
       </c>
       <c r="G12" s="107">
         <v>0</v>
       </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="104"/>
       <c r="N12" s="104"/>
       <c r="O12" s="104"/>
@@ -2163,40 +2205,40 @@
       <c r="AC12" s="104"/>
       <c r="AD12" s="104"/>
     </row>
-    <row r="13" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="100" t="s">
-        <v>73</v>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="C13" s="99" t="s">
+        <v>77</v>
       </c>
       <c r="D13" s="86">
-        <v>44809</v>
+        <v>44788</v>
       </c>
       <c r="E13" s="89">
-        <v>44899</v>
+        <v>44808</v>
       </c>
       <c r="F13" s="91">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G13" s="107">
         <v>0</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
       <c r="Y13" s="104"/>
       <c r="Z13" s="104"/>
       <c r="AA13" s="104"/>
@@ -2206,38 +2248,38 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C14" s="100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="86">
-        <v>44837</v>
+        <v>44795</v>
       </c>
       <c r="E14" s="89">
-        <v>44899</v>
+        <v>44815</v>
       </c>
       <c r="F14" s="91">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="G14" s="107">
         <v>0</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
       <c r="Y14" s="104"/>
       <c r="Z14" s="104"/>
       <c r="AA14" s="104"/>
@@ -2245,60 +2287,61 @@
       <c r="AC14" s="104"/>
       <c r="AD14" s="104"/>
     </row>
-    <row r="15" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:30" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
       <c r="C15" s="100" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="86">
-        <v>44872</v>
+        <v>44809</v>
       </c>
       <c r="E15" s="89">
-        <v>44934</v>
+        <v>44899</v>
       </c>
       <c r="F15" s="91">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G15" s="107">
         <v>0</v>
       </c>
       <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="112"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="112"/>
+      <c r="W15" s="112"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
       <c r="AC15" s="104"/>
       <c r="AD15" s="104"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C16" s="100" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" s="86">
-        <v>44935</v>
+        <v>44837</v>
       </c>
       <c r="E16" s="89">
-        <v>44948</v>
+        <v>44899</v>
       </c>
       <c r="F16" s="91">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G16" s="107">
         <v>0</v>
@@ -2306,40 +2349,119 @@
       <c r="H16" s="104"/>
       <c r="I16" s="104"/>
       <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
       <c r="Y16" s="104"/>
       <c r="Z16" s="104"/>
       <c r="AA16" s="104"/>
       <c r="AB16" s="104"/>
-      <c r="AC16" s="115"/>
-      <c r="AD16" s="115"/>
-    </row>
-    <row r="21" spans="2:2" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C17" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="86">
+        <v>44872</v>
+      </c>
+      <c r="E17" s="89">
+        <v>44934</v>
+      </c>
+      <c r="F17" s="91">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G17" s="107">
+        <v>0</v>
+      </c>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C18" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="86">
+        <v>44935</v>
+      </c>
+      <c r="E18" s="89">
+        <v>44948</v>
+      </c>
+      <c r="F18" s="91">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G18" s="107">
+        <v>0</v>
+      </c>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="115"/>
+      <c r="AD18" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="G10:G16">
+  <conditionalFormatting sqref="G12:G18">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="percent" val="0"/>
@@ -2371,7 +2493,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G10:G16</xm:sqref>
+          <xm:sqref>G12:G18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2459,74 +2581,74 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="122" t="s">
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="125" t="s">
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="125"/>
+      <c r="AM7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="AN7" s="126"/>
-      <c r="AO7" s="126"/>
-      <c r="AP7" s="126"/>
-      <c r="AQ7" s="126"/>
-      <c r="AR7" s="126"/>
-      <c r="AS7" s="126"/>
-      <c r="AT7" s="126"/>
-      <c r="AU7" s="126"/>
-      <c r="AV7" s="126"/>
-      <c r="AW7" s="126"/>
-      <c r="AX7" s="126"/>
-      <c r="AY7" s="126"/>
-      <c r="AZ7" s="126"/>
-      <c r="BA7" s="127"/>
-      <c r="BB7" s="128" t="s">
+      <c r="AN7" s="127"/>
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="127"/>
+      <c r="AS7" s="127"/>
+      <c r="AT7" s="127"/>
+      <c r="AU7" s="127"/>
+      <c r="AV7" s="127"/>
+      <c r="AW7" s="127"/>
+      <c r="AX7" s="127"/>
+      <c r="AY7" s="127"/>
+      <c r="AZ7" s="127"/>
+      <c r="BA7" s="128"/>
+      <c r="BB7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="BC7" s="129"/>
-      <c r="BD7" s="129"/>
-      <c r="BE7" s="129"/>
-      <c r="BF7" s="129"/>
-      <c r="BG7" s="129"/>
-      <c r="BH7" s="129"/>
-      <c r="BI7" s="129"/>
-      <c r="BJ7" s="129"/>
-      <c r="BK7" s="129"/>
-      <c r="BL7" s="129"/>
-      <c r="BM7" s="129"/>
-      <c r="BN7" s="129"/>
-      <c r="BO7" s="129"/>
-      <c r="BP7" s="130"/>
+      <c r="BC7" s="130"/>
+      <c r="BD7" s="130"/>
+      <c r="BE7" s="130"/>
+      <c r="BF7" s="130"/>
+      <c r="BG7" s="130"/>
+      <c r="BH7" s="130"/>
+      <c r="BI7" s="130"/>
+      <c r="BJ7" s="130"/>
+      <c r="BK7" s="130"/>
+      <c r="BL7" s="130"/>
+      <c r="BM7" s="130"/>
+      <c r="BN7" s="130"/>
+      <c r="BO7" s="130"/>
+      <c r="BP7" s="131"/>
     </row>
     <row r="8" spans="2:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -2550,90 +2672,90 @@
       <c r="H8" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="131" t="s">
+      <c r="I8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132" t="s">
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132" t="s">
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="133"/>
-      <c r="X8" s="134" t="s">
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="135"/>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="135" t="s">
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AA8" s="136"/>
+      <c r="AB8" s="136"/>
+      <c r="AC8" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="135"/>
-      <c r="AE8" s="135"/>
-      <c r="AF8" s="135"/>
-      <c r="AG8" s="135"/>
-      <c r="AH8" s="135" t="s">
+      <c r="AD8" s="136"/>
+      <c r="AE8" s="136"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="136"/>
+      <c r="AH8" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="135"/>
-      <c r="AJ8" s="135"/>
-      <c r="AK8" s="135"/>
-      <c r="AL8" s="136"/>
-      <c r="AM8" s="137" t="s">
+      <c r="AI8" s="136"/>
+      <c r="AJ8" s="136"/>
+      <c r="AK8" s="136"/>
+      <c r="AL8" s="137"/>
+      <c r="AM8" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="AN8" s="138"/>
-      <c r="AO8" s="138"/>
-      <c r="AP8" s="138"/>
-      <c r="AQ8" s="138"/>
-      <c r="AR8" s="138" t="s">
+      <c r="AN8" s="139"/>
+      <c r="AO8" s="139"/>
+      <c r="AP8" s="139"/>
+      <c r="AQ8" s="139"/>
+      <c r="AR8" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="138"/>
-      <c r="AT8" s="138"/>
-      <c r="AU8" s="138"/>
-      <c r="AV8" s="138"/>
-      <c r="AW8" s="138" t="s">
+      <c r="AS8" s="139"/>
+      <c r="AT8" s="139"/>
+      <c r="AU8" s="139"/>
+      <c r="AV8" s="139"/>
+      <c r="AW8" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AX8" s="138"/>
-      <c r="AY8" s="138"/>
-      <c r="AZ8" s="138"/>
-      <c r="BA8" s="139"/>
-      <c r="BB8" s="140" t="s">
+      <c r="AX8" s="139"/>
+      <c r="AY8" s="139"/>
+      <c r="AZ8" s="139"/>
+      <c r="BA8" s="140"/>
+      <c r="BB8" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="BC8" s="117"/>
-      <c r="BD8" s="117"/>
-      <c r="BE8" s="117"/>
-      <c r="BF8" s="117"/>
-      <c r="BG8" s="117" t="s">
+      <c r="BC8" s="118"/>
+      <c r="BD8" s="118"/>
+      <c r="BE8" s="118"/>
+      <c r="BF8" s="118"/>
+      <c r="BG8" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="BH8" s="117"/>
-      <c r="BI8" s="117"/>
-      <c r="BJ8" s="117"/>
-      <c r="BK8" s="117"/>
-      <c r="BL8" s="117" t="s">
+      <c r="BH8" s="118"/>
+      <c r="BI8" s="118"/>
+      <c r="BJ8" s="118"/>
+      <c r="BK8" s="118"/>
+      <c r="BL8" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="BM8" s="117"/>
-      <c r="BN8" s="117"/>
-      <c r="BO8" s="117"/>
-      <c r="BP8" s="118"/>
+      <c r="BM8" s="118"/>
+      <c r="BN8" s="118"/>
+      <c r="BO8" s="118"/>
+      <c r="BP8" s="119"/>
     </row>
     <row r="9" spans="2:68" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
